--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\PycharmProjects\pythonProject\uriage\保存先\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5B5F45-372B-4B5A-898F-38FFA7E70595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32524051-8238-4303-A9FE-75275DCAAD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74F9E4D2-8793-4566-B137-1C4524090C69}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{ECB079E7-EB27-4942-902C-B700B03F8415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B7C87B-0BFF-427A-BA84-8115B912CD95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAD8E45-8B5A-4617-8BD1-35AD11AA8E1B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32524051-8238-4303-A9FE-75275DCAAD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E316BE-FC13-4D78-BC86-6A7FAFAFD69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{ECB079E7-EB27-4942-902C-B700B03F8415}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{E979FE36-13B8-4F03-B7B5-EF6E61F7F2C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAD8E45-8B5A-4617-8BD1-35AD11AA8E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA30F65-8A08-436F-BB3C-EEF7D4AD0681}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -1,31 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE8B0E-3DED-4581-8322-53D251E6DE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{478CEDBD-8E71-4EED-B72A-A64C3F9DD18C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="10.0月" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,13 +70,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +96,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +112,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +124,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +141,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +171,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +223,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3C40C-8D55-4FF7-BB1F-1356C3EEA83B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE8B0E-3DED-4581-8322-53D251E6DE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D01F34-5012-4C43-BBA4-AF5A0CE4C406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{478CEDBD-8E71-4EED-B72A-A64C3F9DD18C}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{478CEDBD-8E71-4EED-B72A-A64C3F9DD18C}"/>
   </bookViews>
   <sheets>
-    <sheet name="10.0月" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -391,11 +391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3C40C-8D55-4FF7-BB1F-1356C3EEA83B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E3A14-5EB2-4D7C-B6C0-7DF41CD154C3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,12 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D01F34-5012-4C43-BBA4-AF5A0CE4C406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55C922B-ED02-408C-A51E-2A6C4636155E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{478CEDBD-8E71-4EED-B72A-A64C3F9DD18C}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{8A0F9495-3424-4658-9C68-E05D2D21C97A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="12月" sheetId="13" r:id="rId1"/>
+    <sheet name="11月" sheetId="12" r:id="rId2"/>
+    <sheet name="10月" sheetId="11" r:id="rId3"/>
+    <sheet name="9月" sheetId="10" r:id="rId4"/>
+    <sheet name="8月" sheetId="9" r:id="rId5"/>
+    <sheet name="7月" sheetId="8" r:id="rId6"/>
+    <sheet name="6月" sheetId="7" r:id="rId7"/>
+    <sheet name="5月" sheetId="6" r:id="rId8"/>
+    <sheet name="4月" sheetId="5" r:id="rId9"/>
+    <sheet name="3月" sheetId="4" r:id="rId10"/>
+    <sheet name="2月" sheetId="3" r:id="rId11"/>
+    <sheet name="1月" sheetId="2" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -391,12 +403,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E3A14-5EB2-4D7C-B6C0-7DF41CD154C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEDC2A7-3CD5-42DB-ADEA-255BA3C6AB73}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE68ABE2-C217-40BE-BC29-0D2E0A0043F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A4124-59BE-4F20-8B81-81DCA6AF5E86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64E830E-2B6A-44F3-A18C-0B0756722216}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD263A5F-2822-4A0C-9DBF-04D4F7366130}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79892775-4073-4F29-AD53-4274BFBA89BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB96834-58A7-4B6C-9EC4-548C5481E23B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A16EB63-B87F-4E8A-84BC-F31FBEF22579}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A7A0A-8D2F-4C53-8A8E-25393C008C85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8913A777-5612-4F36-A98A-EF688D258C08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7B1B6-3452-438D-ADAC-EB2865E0C145}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBC4A5D-3131-4D41-BB21-A683F6B830A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F92061F-86B2-46DC-B1C1-63F5AD753E0E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55C922B-ED02-408C-A51E-2A6C4636155E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472B424-4B2B-467B-BED8-259021B94BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{8A0F9495-3424-4658-9C68-E05D2D21C97A}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{2ADAD493-D291-46DB-B426-83D9A2C8EEFD}"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="13" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEDC2A7-3CD5-42DB-ADEA-255BA3C6AB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1C8B7-43DF-467A-B6D0-B95E66CE135E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE68ABE2-C217-40BE-BC29-0D2E0A0043F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992E958-FF4B-4554-A378-EEFC05656B17}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A4124-59BE-4F20-8B81-81DCA6AF5E86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C276048-C2EB-4B9A-B874-A284D67173E8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64E830E-2B6A-44F3-A18C-0B0756722216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583F48BC-C4D2-4D66-B84B-674AA9B1A0C5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD263A5F-2822-4A0C-9DBF-04D4F7366130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93293C3-68DB-4570-8346-35923F1960E0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79892775-4073-4F29-AD53-4274BFBA89BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC41A89-FCAE-4F09-87D1-885E629E6A3F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB96834-58A7-4B6C-9EC4-548C5481E23B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B0289-328B-425C-B558-9E54B52BA90B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A16EB63-B87F-4E8A-84BC-F31FBEF22579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765E942-A2CC-445A-BC80-8EEC221A6449}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A7A0A-8D2F-4C53-8A8E-25393C008C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445A42A6-27CB-4DFE-AEE5-7EE726C02642}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8913A777-5612-4F36-A98A-EF688D258C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD4B99C-9122-4095-96BA-32F0FD47560D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7B1B6-3452-438D-ADAC-EB2865E0C145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930F398-92A4-492B-9289-DE51E890C337}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -546,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBC4A5D-3131-4D41-BB21-A683F6B830A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAA6093-464E-4440-BD89-209A8D20C9DE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F92061F-86B2-46DC-B1C1-63F5AD753E0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207E446A-A76F-435F-AE35-65DEE051991A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,24 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472B424-4B2B-467B-BED8-259021B94BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C76BB8-1498-40EA-806E-6609AA53C70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{2ADAD493-D291-46DB-B426-83D9A2C8EEFD}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{7BAAAD52-7CC0-488D-8FEA-C832D68DFE04}"/>
   </bookViews>
   <sheets>
-    <sheet name="12月" sheetId="13" r:id="rId1"/>
-    <sheet name="11月" sheetId="12" r:id="rId2"/>
-    <sheet name="10月" sheetId="11" r:id="rId3"/>
-    <sheet name="9月" sheetId="10" r:id="rId4"/>
-    <sheet name="8月" sheetId="9" r:id="rId5"/>
-    <sheet name="7月" sheetId="8" r:id="rId6"/>
-    <sheet name="6月" sheetId="7" r:id="rId7"/>
-    <sheet name="5月" sheetId="6" r:id="rId8"/>
-    <sheet name="4月" sheetId="5" r:id="rId9"/>
-    <sheet name="3月" sheetId="4" r:id="rId10"/>
-    <sheet name="2月" sheetId="3" r:id="rId11"/>
-    <sheet name="1月" sheetId="2" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -403,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1C8B7-43DF-467A-B6D0-B95E66CE135E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF4DAC9-31E3-44EC-BE8E-44525683395E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -413,160 +401,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992E958-FF4B-4554-A378-EEFC05656B17}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C276048-C2EB-4B9A-B874-A284D67173E8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583F48BC-C4D2-4D66-B84B-674AA9B1A0C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93293C3-68DB-4570-8346-35923F1960E0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC41A89-FCAE-4F09-87D1-885E629E6A3F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B0289-328B-425C-B558-9E54B52BA90B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765E942-A2CC-445A-BC80-8EEC221A6449}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445A42A6-27CB-4DFE-AEE5-7EE726C02642}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD4B99C-9122-4095-96BA-32F0FD47560D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4930F398-92A4-492B-9289-DE51E890C337}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAA6093-464E-4440-BD89-209A8D20C9DE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207E446A-A76F-435F-AE35-65DEE051991A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{225890A7-06F1-47F8-9276-5B8CCDEA7C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35387662-FC81-44E6-B807-16FAA3469DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="372" windowWidth="11976" windowHeight="6024" xr2:uid="{9AA5772F-271E-4882-A5AD-B3F4E65DE2D4}"/>
+    <workbookView xWindow="3588" yWindow="3588" windowWidth="11976" windowHeight="6024" xr2:uid="{ECB2A658-B5CD-41D2-B1D2-B1ABBBE3BA19}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="14" r:id="rId1"/>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF50D172-9739-48A6-8980-1D1E8E36EE34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C6A028-E69A-4296-BDA3-54807077FAC2}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1126,7 +1126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE18D83A-42D4-4163-81A1-AA18114659DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795E146-5294-4206-9DE4-561A6B2636B9}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1780,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60710559-0473-4E8B-84D3-8F3287C71DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D83ED-4D68-4F39-8726-3C08928F021D}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2434,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04ABF160-CE47-4B33-A5A0-5A79CE28A2AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723CDB4A-5252-42F3-932D-36542F697780}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3088,7 +3088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB00862F-6763-43F4-A7F7-71862B416ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FFB6E8-4D8E-4893-9443-4C235AB68FC8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3177,10 +3177,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13850</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -3245,7 +3245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DCFD81-1E7A-4F14-B7AC-C8F0A35DFB68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21FFF0C-D2AF-4CCE-A02C-4243CA7365EF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3258,7 +3258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BA10B3-FE64-4A42-8877-4D56280ABC18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E1563-0CDD-4EF4-A4C1-57973DB616BA}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3912,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3213823C-9683-471D-8472-8589692D2D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE40EAE-9E8A-405C-BB61-EF74196D9E2E}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4566,7 +4566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF7AC20-9D37-4065-99F6-85FA31BBF045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE424D6-16CD-445A-8DA3-BA420BEE2C63}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5220,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5E77FA-BD27-4DAD-9A34-5EC6AC74EB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA6FCC7-4447-40AE-B4D6-4E4A0A3C7894}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5874,7 +5874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A0E36D-120C-418A-835E-A2A8A40D2837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882A3362-1506-4DB4-8CBA-3182CD47860E}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6528,7 +6528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9948C629-B885-4B3E-9648-D738A43F6BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD0D070-5645-4BA0-838D-5083620DDC6E}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6980,19 +6980,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>13850</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -7182,7 +7182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48489DD7-2A93-410A-9A7C-90EC9640C95E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9222D00D-2E6F-4FEA-BBEF-3242948AFA21}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7836,7 +7836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8457B9E4-95A8-4939-B07F-42814B5147AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D5D0C-B486-409A-85E1-B10B37289C13}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35387662-FC81-44E6-B807-16FAA3469DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39625D4B-D527-49F4-A5FA-AFC3E2E5C760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="3588" windowWidth="11976" windowHeight="6024" xr2:uid="{ECB2A658-B5CD-41D2-B1D2-B1ABBBE3BA19}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{B39B5306-D989-4382-A084-6F70CE1CB731}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="14" r:id="rId1"/>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C6A028-E69A-4296-BDA3-54807077FAC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D766EAD5-9CBA-471E-BA4F-795F15E56312}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1126,7 +1126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795E146-5294-4206-9DE4-561A6B2636B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F95FFA-5F4B-45D3-B4E7-DDE3D7CE8057}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1780,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D83ED-4D68-4F39-8726-3C08928F021D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DDB6ED-1452-4473-B989-283DA6B36984}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2434,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723CDB4A-5252-42F3-932D-36542F697780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579E1664-F464-428C-A736-88D638E04B38}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3088,7 +3088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FFB6E8-4D8E-4893-9443-4C235AB68FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03327DA1-6EEA-4E13-8D01-CB0C86D6DEF9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3245,7 +3245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21FFF0C-D2AF-4CCE-A02C-4243CA7365EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B79D3C-84E3-4F49-BAC1-829AF71BD538}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3258,7 +3258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E1563-0CDD-4EF4-A4C1-57973DB616BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE8F552-A9A0-4743-8A5F-5036E8ED02AD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3912,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE40EAE-9E8A-405C-BB61-EF74196D9E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA85386A-9D61-4B68-98DC-8C5266991F81}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4566,7 +4566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE424D6-16CD-445A-8DA3-BA420BEE2C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B023CD73-A2F8-4DCE-BAFA-EEC0F9067CB4}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5220,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA6FCC7-4447-40AE-B4D6-4E4A0A3C7894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1315B379-343D-45A4-BA41-506BB1A48758}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5874,7 +5874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882A3362-1506-4DB4-8CBA-3182CD47860E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E690477-550A-4E8E-9B38-778E108D83E5}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6528,7 +6528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD0D070-5645-4BA0-838D-5083620DDC6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500EB299-C6E5-446C-97E5-455950F931E9}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7182,7 +7182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9222D00D-2E6F-4FEA-BBEF-3242948AFA21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D60B7D-D96C-4096-9414-FD379599BAF0}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7836,7 +7836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D5D0C-B486-409A-85E1-B10B37289C13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A053E78-7C3B-431C-B0FF-03DA626A648C}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39625D4B-D527-49F4-A5FA-AFC3E2E5C760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C4924A-392F-4B5D-BEFE-FB7C643B0435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{B39B5306-D989-4382-A084-6F70CE1CB731}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{B39B5306-D989-4382-A084-6F70CE1CB731}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="14" r:id="rId1"/>

--- a/保存先/2020年保存先.xlsx
+++ b/保存先/2020年保存先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\Desktop\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C4924A-392F-4B5D-BEFE-FB7C643B0435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B98FD9-8F00-439F-A60D-D2E2E908E5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{B39B5306-D989-4382-A084-6F70CE1CB731}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{B39B5306-D989-4382-A084-6F70CE1CB731}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="14" r:id="rId1"/>
@@ -1578,19 +1578,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>13850</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -3210,10 +3210,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>13850</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>27700</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
